--- a/GEQETF_N.xlsx
+++ b/GEQETF_N.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\19.06.2024\Daily Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rohit Ingole_WFH\Daily Market Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21CDC184-49B9-4489-859A-8384981F46FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4701,7 +4702,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00%"/>
     <numFmt numFmtId="165" formatCode="##0"/>
@@ -4867,35 +4868,35 @@
     </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="bolddate" xfId="25"/>
-    <cellStyle name="boldleftdate" xfId="27"/>
-    <cellStyle name="boldnoDecimalDigits" xfId="10"/>
-    <cellStyle name="boldpercentage" xfId="6"/>
-    <cellStyle name="boldrightdate" xfId="26"/>
-    <cellStyle name="boldthreeDecimalDigits" xfId="12"/>
-    <cellStyle name="boldtwoDecimalDigits" xfId="11"/>
-    <cellStyle name="date" xfId="22"/>
-    <cellStyle name="defaultsheetstyle" xfId="28"/>
-    <cellStyle name="disclaimer" xfId="21"/>
-    <cellStyle name="leftdate" xfId="24"/>
-    <cellStyle name="leftplainBoldText" xfId="19"/>
-    <cellStyle name="leftplainText" xfId="17"/>
-    <cellStyle name="noDecimalDigits" xfId="7"/>
+    <cellStyle name="bolddate" xfId="25" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="boldleftdate" xfId="27" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="boldnoDecimalDigits" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="boldpercentage" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="boldrightdate" xfId="26" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="boldthreeDecimalDigits" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="boldtwoDecimalDigits" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="date" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="defaultsheetstyle" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="disclaimer" xfId="21" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="leftdate" xfId="24" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="leftplainBoldText" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="leftplainText" xfId="17" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="noDecimalDigits" xfId="7" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="percentage" xfId="5"/>
-    <cellStyle name="plainBoldText" xfId="14"/>
-    <cellStyle name="plainBoldValues" xfId="16"/>
-    <cellStyle name="plainText" xfId="13"/>
-    <cellStyle name="plainValues" xfId="15"/>
-    <cellStyle name="rightdate" xfId="23"/>
-    <cellStyle name="rightplainBoldText" xfId="20"/>
-    <cellStyle name="rightplainText" xfId="18"/>
-    <cellStyle name="sheetReportTitle" xfId="2"/>
-    <cellStyle name="sheetTitle" xfId="1"/>
-    <cellStyle name="tableHeader" xfId="3"/>
-    <cellStyle name="tablesubHeader" xfId="4"/>
-    <cellStyle name="threeDecimalDigits" xfId="9"/>
-    <cellStyle name="twoDecimalDigits" xfId="8"/>
+    <cellStyle name="percentage" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="plainBoldText" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="plainBoldValues" xfId="16" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="plainText" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="plainValues" xfId="15" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="rightdate" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="rightplainBoldText" xfId="20" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="rightplainText" xfId="18" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="sheetReportTitle" xfId="2" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="sheetTitle" xfId="1" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="tableHeader" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="tablesubHeader" xfId="4" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="threeDecimalDigits" xfId="9" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="twoDecimalDigits" xfId="8" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5172,7 +5173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5451,7 +5452,7 @@
         <v>504.35519409179688</v>
       </c>
       <c r="S4" s="6">
-        <v>504.27999877929687</v>
+        <v>504.27999877929688</v>
       </c>
       <c r="T4" s="6">
         <v>2395161856</v>
@@ -5510,10 +5511,10 @@
         <v>26</v>
       </c>
       <c r="R5" s="6">
-        <v>269.54000854492187</v>
+        <v>269.54000854492188</v>
       </c>
       <c r="S5" s="6">
-        <v>269.39999389648437</v>
+        <v>269.39999389648438</v>
       </c>
       <c r="T5" s="6">
         <v>778092352</v>
@@ -5575,7 +5576,7 @@
         <v>486.8599853515625</v>
       </c>
       <c r="S6" s="6">
-        <v>485.20999145507812</v>
+        <v>485.20999145507813</v>
       </c>
       <c r="T6" s="6">
         <v>13546231808</v>
@@ -5823,7 +5824,7 @@
         <v>76.199996948242188</v>
       </c>
       <c r="S10" s="6">
-        <v>72.800003051757812</v>
+        <v>72.800003051757813</v>
       </c>
       <c r="T10" s="6">
         <v>510465536</v>
@@ -5944,10 +5945,10 @@
         <v>26</v>
       </c>
       <c r="R12" s="6">
-        <v>368.14999389648437</v>
+        <v>368.14999389648438</v>
       </c>
       <c r="S12" s="6">
-        <v>367.32998657226562</v>
+        <v>367.32998657226563</v>
       </c>
       <c r="T12" s="6">
         <v>453754176</v>
@@ -6128,7 +6129,7 @@
         <v>26</v>
       </c>
       <c r="R15" s="6">
-        <v>185.34500122070312</v>
+        <v>185.34500122070313</v>
       </c>
       <c r="S15" s="6">
         <v>185.11000061035156</v>
@@ -6501,7 +6502,7 @@
         <v>232.16999816894531</v>
       </c>
       <c r="S21" s="6">
-        <v>231.41000366210937</v>
+        <v>231.41000366210938</v>
       </c>
       <c r="T21" s="6">
         <v>1016908160</v>
@@ -6808,7 +6809,7 @@
         <v>26</v>
       </c>
       <c r="R26" s="6">
-        <v>250.41000366210937</v>
+        <v>250.41000366210938</v>
       </c>
       <c r="S26" s="6">
         <v>244.07000732421875</v>
@@ -7056,10 +7057,10 @@
         <v>26</v>
       </c>
       <c r="R30" s="6">
-        <v>229.53500366210937</v>
+        <v>229.53500366210938</v>
       </c>
       <c r="S30" s="6">
-        <v>218.08999633789062</v>
+        <v>218.08999633789063</v>
       </c>
       <c r="T30" s="6">
         <v>94780680</v>
@@ -7118,7 +7119,7 @@
         <v>26</v>
       </c>
       <c r="R31" s="6">
-        <v>80.819900512695312</v>
+        <v>80.819900512695313</v>
       </c>
       <c r="S31" s="6">
         <v>77.639999389648438</v>
@@ -7183,7 +7184,7 @@
         <v>169.79899597167969</v>
       </c>
       <c r="S32" s="6">
-        <v>165.27999877929687</v>
+        <v>165.27999877929688</v>
       </c>
       <c r="T32" s="6">
         <v>842276416</v>
@@ -8110,10 +8111,10 @@
         <v>26</v>
       </c>
       <c r="R47" s="6">
-        <v>298.77999877929687</v>
+        <v>298.77999877929688</v>
       </c>
       <c r="S47" s="6">
-        <v>298.72000122070312</v>
+        <v>298.72000122070313</v>
       </c>
       <c r="T47" s="6">
         <v>312015872</v>
@@ -8234,7 +8235,7 @@
         <v>26</v>
       </c>
       <c r="R49" s="6">
-        <v>84.330001831054687</v>
+        <v>84.330001831054688</v>
       </c>
       <c r="S49" s="6">
         <v>81.290000915527344</v>
@@ -8358,7 +8359,7 @@
         <v>26</v>
       </c>
       <c r="R51" s="6">
-        <v>187.23989868164062</v>
+        <v>187.23989868164063</v>
       </c>
       <c r="S51" s="6">
         <v>181.97999572753906</v>
@@ -8671,7 +8672,7 @@
         <v>282.56025926676114</v>
       </c>
       <c r="S56" s="6">
-        <v>253.50326538085937</v>
+        <v>253.50326538085938</v>
       </c>
       <c r="T56" s="6">
         <v>7022420.5</v>
@@ -8919,7 +8920,7 @@
         <v>192.43879699707031</v>
       </c>
       <c r="S60" s="6">
-        <v>183.02999877929687</v>
+        <v>183.02999877929688</v>
       </c>
       <c r="T60" s="6">
         <v>71252840</v>
@@ -9224,7 +9225,7 @@
         <v>37</v>
       </c>
       <c r="R65" s="6">
-        <v>278.26998901367187</v>
+        <v>278.26998901367188</v>
       </c>
       <c r="S65" s="6">
         <v>276.760009765625</v>
@@ -9408,7 +9409,7 @@
         <v>26</v>
       </c>
       <c r="R68" s="6">
-        <v>317.01998901367187</v>
+        <v>317.01998901367188</v>
       </c>
       <c r="S68" s="6">
         <v>316.17999267578125</v>
@@ -9597,7 +9598,7 @@
         <v>94.830001831054688</v>
       </c>
       <c r="S71" s="6">
-        <v>94.580001831054687</v>
+        <v>94.580001831054688</v>
       </c>
       <c r="T71" s="6">
         <v>93736064</v>
@@ -9781,7 +9782,7 @@
         <v>132.48500061035156</v>
       </c>
       <c r="S74" s="6">
-        <v>128.91000366210937</v>
+        <v>128.91000366210938</v>
       </c>
       <c r="T74" s="6">
         <v>31532958</v>
@@ -9840,7 +9841,7 @@
         <v>26</v>
       </c>
       <c r="R75" s="6">
-        <v>70.675003051757812</v>
+        <v>70.675003051757813</v>
       </c>
       <c r="S75" s="6">
         <v>68.470001220703125</v>
@@ -9905,7 +9906,7 @@
         <v>185.28999328613281</v>
       </c>
       <c r="S76" s="6">
-        <v>180.85000610351562</v>
+        <v>180.85000610351563</v>
       </c>
       <c r="T76" s="6">
         <v>493102784</v>
@@ -9964,7 +9965,7 @@
         <v>26</v>
       </c>
       <c r="R77" s="6">
-        <v>153.66000366210937</v>
+        <v>153.66000366210938</v>
       </c>
       <c r="S77" s="6">
         <v>153.46000671386719</v>
@@ -10029,7 +10030,7 @@
         <v>128.86000061035156</v>
       </c>
       <c r="S78" s="6">
-        <v>128.58999633789062</v>
+        <v>128.58999633789063</v>
       </c>
       <c r="T78" s="6">
         <v>40688460</v>
@@ -10520,7 +10521,7 @@
         <v>26</v>
       </c>
       <c r="R86" s="6">
-        <v>271.53170776367187</v>
+        <v>271.53170776367188</v>
       </c>
       <c r="S86" s="6">
         <v>265.6300048828125</v>
@@ -10582,10 +10583,10 @@
         <v>26</v>
       </c>
       <c r="R87" s="6">
-        <v>262.08999633789062</v>
+        <v>262.08999633789063</v>
       </c>
       <c r="S87" s="6">
-        <v>248.91000366210937</v>
+        <v>248.91000366210938</v>
       </c>
       <c r="T87" s="6">
         <v>51873420</v>
@@ -10706,7 +10707,7 @@
         <v>37</v>
       </c>
       <c r="R89" s="6">
-        <v>90.639999389648437</v>
+        <v>90.639999389648438</v>
       </c>
       <c r="S89" s="6">
         <v>88.019996643066406</v>
@@ -10954,10 +10955,10 @@
         <v>37</v>
       </c>
       <c r="R93" s="6">
-        <v>260.64999389648437</v>
+        <v>260.64999389648438</v>
       </c>
       <c r="S93" s="6">
-        <v>259.27999877929687</v>
+        <v>259.27999877929688</v>
       </c>
       <c r="T93" s="6">
         <v>632355200</v>
@@ -11575,7 +11576,7 @@
         <v>106.44999694824219</v>
       </c>
       <c r="S103" s="6">
-        <v>102.97000122070312</v>
+        <v>102.97000122070313</v>
       </c>
       <c r="T103" s="6">
         <v>181572448</v>
@@ -11696,10 +11697,10 @@
         <v>26</v>
       </c>
       <c r="R105" s="6">
-        <v>309.91000366210937</v>
+        <v>309.91000366210938</v>
       </c>
       <c r="S105" s="6">
-        <v>309.83999633789062</v>
+        <v>309.83999633789063</v>
       </c>
       <c r="T105" s="6">
         <v>34006628</v>
@@ -12126,7 +12127,7 @@
         <v>26</v>
       </c>
       <c r="R112" s="6">
-        <v>236.47000122070312</v>
+        <v>236.47000122070313</v>
       </c>
       <c r="S112" s="6">
         <v>231.69999694824219</v>
@@ -12434,7 +12435,7 @@
         <v>26</v>
       </c>
       <c r="R117" s="6">
-        <v>265.72000122070312</v>
+        <v>265.72000122070313</v>
       </c>
       <c r="S117" s="6">
         <v>265.32000732421875</v>
@@ -12802,10 +12803,10 @@
         <v>26</v>
       </c>
       <c r="R123" s="6">
-        <v>107.77999877929687</v>
+        <v>107.77999877929688</v>
       </c>
       <c r="S123" s="6">
-        <v>107.77999877929687</v>
+        <v>107.77999877929688</v>
       </c>
       <c r="T123" s="6">
         <v>19893382</v>
@@ -12864,7 +12865,7 @@
         <v>26</v>
       </c>
       <c r="R124" s="6">
-        <v>216.85989379882812</v>
+        <v>216.85989379882813</v>
       </c>
       <c r="S124" s="6">
         <v>216.13999938964844</v>
@@ -12926,7 +12927,7 @@
         <v>26</v>
       </c>
       <c r="R125" s="6">
-        <v>337.70999145507812</v>
+        <v>337.70999145507813</v>
       </c>
       <c r="S125" s="6">
         <v>337</v>
@@ -13420,7 +13421,7 @@
         <v>26</v>
       </c>
       <c r="R133" s="6">
-        <v>159.84500122070312</v>
+        <v>159.84500122070313</v>
       </c>
       <c r="S133" s="6">
         <v>149.94000244140625</v>
@@ -13485,7 +13486,7 @@
         <v>81.743499755859375</v>
       </c>
       <c r="S134" s="6">
-        <v>78.139999389648437</v>
+        <v>78.139999389648438</v>
       </c>
       <c r="T134" s="6">
         <v>18883074</v>
@@ -13609,7 +13610,7 @@
         <v>273.760009765625</v>
       </c>
       <c r="S136" s="6">
-        <v>261.17001342773437</v>
+        <v>261.17001342773438</v>
       </c>
       <c r="T136" s="6">
         <v>72465216</v>
@@ -14102,7 +14103,7 @@
         <v>26</v>
       </c>
       <c r="R144" s="6">
-        <v>111.72000122070312</v>
+        <v>111.72000122070313</v>
       </c>
       <c r="S144" s="6">
         <v>107.26999664306641</v>
@@ -15097,7 +15098,7 @@
         <v>66.864997863769531</v>
       </c>
       <c r="S160" s="6">
-        <v>66.830001831054687</v>
+        <v>66.830001831054688</v>
       </c>
       <c r="T160" s="6">
         <v>18064486</v>
@@ -15179,7 +15180,7 @@
         <v>136</v>
       </c>
       <c r="E162" s="6">
-        <v>8.1579513549804687</v>
+        <v>8.1579513549804688</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>0</v>
@@ -15338,7 +15339,7 @@
         <v>64</v>
       </c>
       <c r="R164" s="6">
-        <v>32.610000610351562</v>
+        <v>32.610000610351563</v>
       </c>
       <c r="S164" s="6">
         <v>32.5</v>
@@ -15524,7 +15525,7 @@
         <v>26</v>
       </c>
       <c r="R167" s="6">
-        <v>137.91799926757812</v>
+        <v>137.91799926757813</v>
       </c>
       <c r="S167" s="6">
         <v>124.23000335693359</v>
@@ -16200,7 +16201,7 @@
         <v>26</v>
       </c>
       <c r="R178" s="6">
-        <v>120.41000366210937</v>
+        <v>120.41000366210938</v>
       </c>
       <c r="S178" s="6">
         <v>119.69000244140625</v>
@@ -16386,10 +16387,10 @@
         <v>37</v>
       </c>
       <c r="R181" s="6">
-        <v>71.819900512695312</v>
+        <v>71.819900512695313</v>
       </c>
       <c r="S181" s="6">
-        <v>69.300003051757812</v>
+        <v>69.300003051757813</v>
       </c>
       <c r="T181" s="6">
         <v>19129488</v>
@@ -16446,7 +16447,7 @@
         <v>37</v>
       </c>
       <c r="R182" s="6">
-        <v>141.16000366210937</v>
+        <v>141.16000366210938</v>
       </c>
       <c r="S182" s="6">
         <v>134.3800048828125</v>
@@ -17372,7 +17373,7 @@
         <v>53</v>
       </c>
       <c r="R197" s="6">
-        <v>72.389999389648437</v>
+        <v>72.389999389648438</v>
       </c>
       <c r="S197" s="6">
         <v>69.319999694824219</v>
@@ -17496,7 +17497,7 @@
         <v>37</v>
       </c>
       <c r="R199" s="6">
-        <v>59.330001831054687</v>
+        <v>59.330001831054688</v>
       </c>
       <c r="S199" s="6">
         <v>55.119998931884766</v>
@@ -17988,7 +17989,7 @@
         <v>53</v>
       </c>
       <c r="R207" s="6">
-        <v>55.330001831054687</v>
+        <v>55.330001831054688</v>
       </c>
       <c r="S207" s="6">
         <v>52.930000305175781</v>
@@ -18237,7 +18238,7 @@
         <v>466.5</v>
       </c>
       <c r="S211" s="6">
-        <v>451.91000366210937</v>
+        <v>451.91000366210938</v>
       </c>
       <c r="T211" s="6">
         <v>292635744</v>
@@ -18606,10 +18607,10 @@
         <v>26</v>
       </c>
       <c r="R217" s="6">
-        <v>198.77999877929687</v>
+        <v>198.77999877929688</v>
       </c>
       <c r="S217" s="6">
-        <v>198.60000610351562</v>
+        <v>198.60000610351563</v>
       </c>
       <c r="T217" s="6">
         <v>13825156</v>
@@ -19898,10 +19899,10 @@
         <v>26</v>
       </c>
       <c r="R238" s="6">
-        <v>244.72000122070312</v>
+        <v>244.72000122070313</v>
       </c>
       <c r="S238" s="6">
-        <v>237.83999633789062</v>
+        <v>237.83999633789063</v>
       </c>
       <c r="T238" s="6">
         <v>21506002</v>
@@ -20147,7 +20148,7 @@
         <v>111.65000152587891</v>
       </c>
       <c r="S242" s="6">
-        <v>108.08999633789062</v>
+        <v>108.08999633789063</v>
       </c>
       <c r="T242" s="6">
         <v>58247876</v>
@@ -20705,7 +20706,7 @@
         <v>149.14500427246094</v>
       </c>
       <c r="S251" s="6">
-        <v>149.02999877929687</v>
+        <v>149.02999877929688</v>
       </c>
       <c r="T251" s="6">
         <v>550031488</v>
@@ -21322,7 +21323,7 @@
         <v>53</v>
       </c>
       <c r="R261" s="6">
-        <v>58.139999389648437</v>
+        <v>58.139999389648438</v>
       </c>
       <c r="S261" s="6">
         <v>57.130001068115234</v>
@@ -21630,7 +21631,7 @@
         <v>53</v>
       </c>
       <c r="R266" s="6">
-        <v>106.22000122070312</v>
+        <v>106.22000122070313</v>
       </c>
       <c r="S266" s="6">
         <v>104.44000244140625</v>
@@ -21819,7 +21820,7 @@
         <v>37.215000152587891</v>
       </c>
       <c r="S269" s="6">
-        <v>37.139999389648437</v>
+        <v>37.139999389648438</v>
       </c>
       <c r="T269" s="6">
         <v>12002731</v>
@@ -22129,7 +22130,7 @@
         <v>94.329299926757813</v>
       </c>
       <c r="S274" s="6">
-        <v>92.550003051757812</v>
+        <v>92.550003051757813</v>
       </c>
       <c r="T274" s="6">
         <v>10491167</v>
@@ -22253,7 +22254,7 @@
         <v>53.930000305175781</v>
       </c>
       <c r="S276" s="6">
-        <v>51.389999389648437</v>
+        <v>51.389999389648438</v>
       </c>
       <c r="T276" s="6">
         <v>64505632</v>
@@ -22496,7 +22497,7 @@
         <v>53</v>
       </c>
       <c r="R280" s="6">
-        <v>58.900100708007812</v>
+        <v>58.900100708007813</v>
       </c>
       <c r="S280" s="6">
         <v>57.869998931884766</v>
@@ -22742,7 +22743,7 @@
         <v>26</v>
       </c>
       <c r="R284" s="6">
-        <v>57.544998168945312</v>
+        <v>57.544998168945313</v>
       </c>
       <c r="S284" s="6">
         <v>55.369998931884766</v>
@@ -23361,7 +23362,7 @@
         <v>162.49000549316406</v>
       </c>
       <c r="S294" s="6">
-        <v>142.89999389648437</v>
+        <v>142.89999389648438</v>
       </c>
       <c r="T294" s="6">
         <v>434349920</v>
@@ -23482,7 +23483,7 @@
         <v>26</v>
       </c>
       <c r="R296" s="6">
-        <v>148.13510131835937</v>
+        <v>148.13510131835938</v>
       </c>
       <c r="S296" s="6">
         <v>147.96000671386719</v>
@@ -23733,7 +23734,7 @@
         <v>88.349943268353897</v>
       </c>
       <c r="S300" s="6">
-        <v>86.648391723632812</v>
+        <v>86.648391723632813</v>
       </c>
       <c r="T300" s="6">
         <v>13687770</v>
@@ -25520,7 +25521,7 @@
         <v>53</v>
       </c>
       <c r="R329" s="6">
-        <v>116.33999633789062</v>
+        <v>116.33999633789063</v>
       </c>
       <c r="S329" s="6">
         <v>102.91999816894531</v>
@@ -25585,7 +25586,7 @@
         <v>141.84499770570162</v>
       </c>
       <c r="S330" s="6">
-        <v>140.48184204101562</v>
+        <v>140.48184204101563</v>
       </c>
       <c r="T330" s="6">
         <v>3265004.25</v>
@@ -25707,7 +25708,7 @@
         <v>218.5</v>
       </c>
       <c r="S332" s="6">
-        <v>216.89999389648437</v>
+        <v>216.89999389648438</v>
       </c>
       <c r="T332" s="6">
         <v>16963860</v>
@@ -25849,7 +25850,7 @@
         <v>24</v>
       </c>
       <c r="E335" s="6">
-        <v>8.0792617797851562</v>
+        <v>8.0792617797851563</v>
       </c>
       <c r="F335" s="5" t="s">
         <v>0</v>
@@ -26015,7 +26016,7 @@
         <v>78.009803771972656</v>
       </c>
       <c r="S337" s="6">
-        <v>77.800003051757812</v>
+        <v>77.800003051757813</v>
       </c>
       <c r="T337" s="6">
         <v>5707008.5</v>
@@ -26623,7 +26624,7 @@
         <v>102.43000030517578</v>
       </c>
       <c r="S347" s="6">
-        <v>97.389999389648437</v>
+        <v>97.389999389648438</v>
       </c>
       <c r="T347" s="6">
         <v>6969043</v>
@@ -27052,7 +27053,7 @@
         <v>26</v>
       </c>
       <c r="R354" s="6">
-        <v>104.23989868164062</v>
+        <v>104.23989868164063</v>
       </c>
       <c r="S354" s="6">
         <v>104.18499755859375</v>
@@ -27114,7 +27115,7 @@
         <v>37</v>
       </c>
       <c r="R355" s="6">
-        <v>73.639999389648437</v>
+        <v>73.639999389648438</v>
       </c>
       <c r="S355" s="6">
         <v>72.680000305175781</v>
@@ -27176,7 +27177,7 @@
         <v>26</v>
       </c>
       <c r="R356" s="6">
-        <v>31.139999389648437</v>
+        <v>31.139999389648438</v>
       </c>
       <c r="S356" s="6">
         <v>30.299999237060547</v>
@@ -27300,7 +27301,7 @@
         <v>37</v>
       </c>
       <c r="R358" s="6">
-        <v>54.419998168945312</v>
+        <v>54.419998168945313</v>
       </c>
       <c r="S358" s="6">
         <v>54.290000915527344</v>
@@ -27548,7 +27549,7 @@
         <v>26</v>
       </c>
       <c r="R362" s="6">
-        <v>76.389999389648437</v>
+        <v>76.389999389648438</v>
       </c>
       <c r="S362" s="6">
         <v>72.839996337890625</v>
@@ -28718,7 +28719,7 @@
         <v>26</v>
       </c>
       <c r="R381" s="6">
-        <v>55.110000610351562</v>
+        <v>55.110000610351563</v>
       </c>
       <c r="S381" s="6">
         <v>53.369998931884766</v>
@@ -29155,7 +29156,7 @@
         <v>113.08000183105469</v>
       </c>
       <c r="S388" s="6">
-        <v>101.58999633789062</v>
+        <v>101.58999633789063</v>
       </c>
       <c r="T388" s="6">
         <v>50948040</v>
@@ -29276,7 +29277,7 @@
         <v>26</v>
       </c>
       <c r="R390" s="6">
-        <v>39.919998168945312</v>
+        <v>39.919998168945313</v>
       </c>
       <c r="S390" s="6">
         <v>38.400001525878906</v>
@@ -29952,7 +29953,7 @@
         <v>26</v>
       </c>
       <c r="R401" s="6">
-        <v>65.360000610351562</v>
+        <v>65.360000610351563</v>
       </c>
       <c r="S401" s="6">
         <v>58.5</v>
@@ -30819,7 +30820,7 @@
         <v>42.849998474121094</v>
       </c>
       <c r="S415" s="6">
-        <v>42.830001831054687</v>
+        <v>42.830001831054688</v>
       </c>
       <c r="T415" s="6">
         <v>18565724</v>
@@ -31310,7 +31311,7 @@
         <v>26</v>
       </c>
       <c r="R423" s="6">
-        <v>364.07998657226562</v>
+        <v>364.07998657226563</v>
       </c>
       <c r="S423" s="6">
         <v>301.07000732421875</v>
@@ -32541,7 +32542,7 @@
         <v>37.420299530029297</v>
       </c>
       <c r="S443" s="6">
-        <v>37.389999389648437</v>
+        <v>37.389999389648438</v>
       </c>
       <c r="T443" s="6">
         <v>6109103.5</v>
@@ -32727,7 +32728,7 @@
         <v>201.02000427246094</v>
       </c>
       <c r="S446" s="6">
-        <v>200.64999389648437</v>
+        <v>200.64999389648438</v>
       </c>
       <c r="T446" s="6">
         <v>3553079.25</v>
@@ -33590,7 +33591,7 @@
         <v>26</v>
       </c>
       <c r="R460" s="6">
-        <v>134.58999633789062</v>
+        <v>134.58999633789063</v>
       </c>
       <c r="S460" s="6">
         <v>134.55999755859375</v>
@@ -34393,7 +34394,7 @@
         <v>165.69999694824219</v>
       </c>
       <c r="S473" s="6">
-        <v>164.58999633789062</v>
+        <v>164.58999633789063</v>
       </c>
       <c r="T473" s="6">
         <v>59155160</v>
@@ -35007,7 +35008,7 @@
         <v>90.329902648925781</v>
       </c>
       <c r="S483" s="6">
-        <v>83.139999389648437</v>
+        <v>83.139999389648438</v>
       </c>
       <c r="T483" s="6">
         <v>4295493</v>
@@ -35499,7 +35500,7 @@
         <v>68.696665445963532</v>
       </c>
       <c r="S491" s="6">
-        <v>66.330001831054687</v>
+        <v>66.330001831054688</v>
       </c>
       <c r="T491" s="6">
         <v>3387538.25</v>
@@ -36675,7 +36676,7 @@
         <v>21.5</v>
       </c>
       <c r="S510" s="6">
-        <v>19.639999389648437</v>
+        <v>19.639999389648438</v>
       </c>
       <c r="T510" s="6">
         <v>4162071.5</v>
@@ -36921,7 +36922,7 @@
         <v>74.709999084472656</v>
       </c>
       <c r="S514" s="6">
-        <v>45.110000610351562</v>
+        <v>45.110000610351563</v>
       </c>
       <c r="T514" s="6">
         <v>75638872</v>
@@ -37042,7 +37043,7 @@
         <v>26</v>
       </c>
       <c r="R516" s="6">
-        <v>54.514999389648437</v>
+        <v>54.514999389648438</v>
       </c>
       <c r="S516" s="6">
         <v>53.405200958251953</v>
@@ -37348,7 +37349,7 @@
         <v>26</v>
       </c>
       <c r="R521" s="6">
-        <v>161.41000366210937</v>
+        <v>161.41000366210938</v>
       </c>
       <c r="S521" s="6">
         <v>150.05000305175781</v>
@@ -37472,7 +37473,7 @@
         <v>26</v>
       </c>
       <c r="R523" s="6">
-        <v>52.080001831054687</v>
+        <v>52.080001831054688</v>
       </c>
       <c r="S523" s="6">
         <v>51.119998931884766</v>
@@ -38706,7 +38707,7 @@
         <v>26</v>
       </c>
       <c r="R543" s="6">
-        <v>176.98989868164062</v>
+        <v>176.98989868164063</v>
       </c>
       <c r="S543" s="6">
         <v>103.23000335693359</v>
@@ -41181,7 +41182,7 @@
         <v>50</v>
       </c>
       <c r="E584" s="6">
-        <v>3.9344558715820312</v>
+        <v>3.9344558715820313</v>
       </c>
       <c r="F584" s="5" t="s">
         <v>0</v>
@@ -42202,10 +42203,10 @@
         <v>26</v>
       </c>
       <c r="R600" s="6">
-        <v>115.52999877929687</v>
+        <v>115.52999877929688</v>
       </c>
       <c r="S600" s="6">
-        <v>110.52999877929687</v>
+        <v>110.52999877929688</v>
       </c>
       <c r="T600" s="6">
         <v>3226067.25</v>
@@ -43180,7 +43181,7 @@
         <v>53</v>
       </c>
       <c r="R616" s="6">
-        <v>112.72000122070312</v>
+        <v>112.72000122070313</v>
       </c>
       <c r="S616" s="6">
         <v>96.680000305175781</v>
@@ -43429,7 +43430,7 @@
         <v>64.472052142443246</v>
       </c>
       <c r="S620" s="6">
-        <v>64.365890502929687</v>
+        <v>64.365890502929688</v>
       </c>
       <c r="T620" s="6">
         <v>2408354.25</v>
@@ -43550,7 +43551,7 @@
         <v>26</v>
       </c>
       <c r="R622" s="6">
-        <v>91.139999389648437</v>
+        <v>91.139999389648438</v>
       </c>
       <c r="S622" s="6">
         <v>88.209999084472656</v>
@@ -43739,7 +43740,7 @@
         <v>107.3907953776</v>
       </c>
       <c r="S625" s="6">
-        <v>104.52474975585937</v>
+        <v>104.52474975585938</v>
       </c>
       <c r="T625" s="6">
         <v>2788690.5</v>
@@ -43922,7 +43923,7 @@
         <v>26</v>
       </c>
       <c r="R628" s="6">
-        <v>156.00509643554687</v>
+        <v>156.00509643554688</v>
       </c>
       <c r="S628" s="6">
         <v>153.91999816894531</v>
@@ -44168,7 +44169,7 @@
         <v>26</v>
       </c>
       <c r="R632" s="6">
-        <v>35.389999389648437</v>
+        <v>35.389999389648438</v>
       </c>
       <c r="S632" s="6">
         <v>33.599998474121094</v>
@@ -45835,7 +45836,7 @@
         <v>7.6948032828201764</v>
       </c>
       <c r="S659" s="6">
-        <v>7.5329360961914062</v>
+        <v>7.5329360961914063</v>
       </c>
       <c r="T659" s="6">
         <v>21035698</v>
@@ -47188,10 +47189,10 @@
         <v>26</v>
       </c>
       <c r="R681" s="6">
-        <v>81.717697143554687</v>
+        <v>81.717697143554688</v>
       </c>
       <c r="S681" s="6">
-        <v>71.459396362304687</v>
+        <v>71.459396362304688</v>
       </c>
       <c r="T681" s="6">
         <v>2032402.375</v>
@@ -48162,7 +48163,7 @@
         <v>37</v>
       </c>
       <c r="R697" s="6">
-        <v>73.641403198242187</v>
+        <v>73.641403198242188</v>
       </c>
       <c r="S697" s="6">
         <v>73.199996948242188</v>
@@ -50930,7 +50931,7 @@
         <v>26</v>
       </c>
       <c r="R742" s="6">
-        <v>153.39999389648437</v>
+        <v>153.39999389648438</v>
       </c>
       <c r="S742" s="6">
         <v>99.290000915527344</v>
